--- a/Jogos_do_Dia/2023-01-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="H2" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -704,7 +704,7 @@
         <v>1.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE2" t="n">
         <v>1.26</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -763,10 +763,10 @@
         <v>3.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="N3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -814,7 +814,7 @@
         <v>2.66</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE3" t="n">
         <v>1.21</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.07</v>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N4" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -900,31 +900,31 @@
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE4" t="n">
         <v>1.55</v>
@@ -936,7 +936,7 @@
         <v>2.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="N5" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N6" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1203,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="N7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1245,13 +1245,13 @@
         <v>2.97</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD7" t="n">
         <v>1.3</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1355,13 +1355,13 @@
         <v>2.81</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.73</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,10 +1423,10 @@
         <v>4.15</v>
       </c>
       <c r="M9" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="N9" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
         <v>1.01</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1560,43 +1560,43 @@
         <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="X10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1670,43 +1670,43 @@
         <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
         <v>1.01</v>
@@ -1756,7 +1756,7 @@
         <v>1.8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1780,28 +1780,28 @@
         <v>1.45</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="X12" t="n">
         <v>1.26</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="I13" t="n">
         <v>1.05</v>
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1890,28 +1890,28 @@
         <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG13" t="n">
         <v>1.98</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>3.14</v>
       </c>
       <c r="M14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2000,28 +2000,28 @@
         <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG14" t="n">
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -2065,7 +2065,7 @@
         <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
@@ -2110,43 +2110,43 @@
         <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -2175,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2193,7 +2193,7 @@
         <v>3.14</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="N16" t="n">
         <v>1.8</v>
@@ -2220,43 +2220,43 @@
         <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X16" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="Y16" t="n">
         <v>1.13</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2330,28 +2330,28 @@
         <v>1.72</v>
       </c>
       <c r="V17" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2440,28 +2440,28 @@
         <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="Y18" t="n">
         <v>1.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD18" t="n">
         <v>1.21</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2523,10 +2523,10 @@
         <v>2.95</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="N19" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2550,28 +2550,28 @@
         <v>1.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X19" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD19" t="n">
         <v>1.21</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="I20" t="n">
         <v>1.08</v>
@@ -2633,10 +2633,10 @@
         <v>2.8</v>
       </c>
       <c r="M20" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="N20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -2660,28 +2660,28 @@
         <v>1.45</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD20" t="n">
         <v>1.24</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
         <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,7 +2743,7 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N21" t="n">
         <v>1.7</v>
@@ -2770,28 +2770,28 @@
         <v>1.55</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X21" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD21" t="n">
         <v>1.24</v>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
         <v>3.2</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2880,28 +2880,28 @@
         <v>1.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1.21</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="G23" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -2990,28 +2990,28 @@
         <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="W23" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="X23" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD23" t="n">
         <v>1.26</v>
@@ -3058,7 +3058,7 @@
         <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N24" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3100,28 +3100,28 @@
         <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="W24" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD24" t="n">
         <v>1.24</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3183,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N25" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3210,28 +3210,28 @@
         <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="W25" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
         <v>1.26</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>2.39</v>
       </c>
       <c r="G26" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="n">
         <v>1.07</v>
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="N26" t="n">
         <v>1.7</v>
@@ -3320,28 +3320,28 @@
         <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
         <v>1.45</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="I27" t="n">
         <v>1.06</v>
@@ -3406,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3430,34 +3430,34 @@
         <v>1.68</v>
       </c>
       <c r="V27" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF27" t="n">
         <v>1.57</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3540,31 +3540,31 @@
         <v>1.45</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W28" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="X28" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE28" t="n">
         <v>1.48</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="I29" t="n">
         <v>1.06</v>
@@ -3623,10 +3623,10 @@
         <v>3.25</v>
       </c>
       <c r="M29" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="N29" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3650,31 +3650,31 @@
         <v>2.25</v>
       </c>
       <c r="V29" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X29" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE29" t="n">
         <v>1.48</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="H30" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
         <v>1.02</v>
@@ -3733,10 +3733,10 @@
         <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="N30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.55</v>
+        <v>5.31</v>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>3.61</v>
       </c>
       <c r="H31" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="I31" t="n">
         <v>1.06</v>
@@ -3843,10 +3843,10 @@
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="I32" t="n">
         <v>1.02</v>
@@ -3953,10 +3953,10 @@
         <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="N32" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -3995,13 +3995,13 @@
         <v>4.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD32" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-01-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.37</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.56</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -763,10 +763,10 @@
         <v>3.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
         <v>1.07</v>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1075,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -1093,10 +1093,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1188,7 +1188,7 @@
         <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="H8" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G9" t="n">
-        <v>3.98</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.73</v>
+        <v>4.36</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,10 +1423,10 @@
         <v>4.15</v>
       </c>
       <c r="M9" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
         <v>1.01</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1584,7 +1584,7 @@
         <v>3.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE10" t="n">
         <v>1.43</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -1694,7 +1694,7 @@
         <v>1.74</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE11" t="n">
         <v>1.48</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="I12" t="n">
         <v>1.01</v>
@@ -1753,10 +1753,10 @@
         <v>3.62</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="N12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF12" t="n">
         <v>1.48</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.57</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>1.05</v>
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF13" t="n">
         <v>1.57</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>3.14</v>
       </c>
       <c r="M14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF14" t="n">
         <v>1.57</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G15" t="n">
         <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2083,10 +2083,10 @@
         <v>3.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2134,7 +2134,7 @@
         <v>3.15</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE15" t="n">
         <v>1.48</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2193,10 +2193,10 @@
         <v>3.14</v>
       </c>
       <c r="M16" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2244,7 +2244,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE16" t="n">
         <v>1.48</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2354,10 +2354,10 @@
         <v>2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF17" t="n">
         <v>1.65</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="G18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="G19" t="n">
         <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2523,10 +2523,10 @@
         <v>2.95</v>
       </c>
       <c r="M19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="n">
         <v>1.08</v>
@@ -2633,10 +2633,10 @@
         <v>2.8</v>
       </c>
       <c r="M20" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N20" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,7 +2743,7 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
         <v>1.7</v>
@@ -2838,7 +2838,7 @@
         <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="N23" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3183,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.39</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
-        <v>2.67</v>
+        <v>2.34</v>
       </c>
       <c r="I26" t="n">
         <v>1.07</v>
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>1.7</v>
@@ -3344,7 +3344,7 @@
         <v>1.95</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE26" t="n">
         <v>1.48</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="G27" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.12</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
         <v>1.06</v>
@@ -3403,10 +3403,10 @@
         <v>3.3</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3454,7 +3454,7 @@
         <v>2.85</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE27" t="n">
         <v>1.32</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G29" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.29</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
         <v>1.06</v>
@@ -3623,10 +3623,10 @@
         <v>3.25</v>
       </c>
       <c r="M29" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="G30" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
         <v>1.02</v>
@@ -3736,7 +3736,7 @@
         <v>1.57</v>
       </c>
       <c r="N30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.31</v>
+        <v>4.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.61</v>
+        <v>3.65</v>
       </c>
       <c r="H31" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I31" t="n">
         <v>1.06</v>
@@ -3843,10 +3843,10 @@
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="I32" t="n">
         <v>1.02</v>
@@ -3953,7 +3953,7 @@
         <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="N32" t="n">
         <v>2.3</v>
